--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_57.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_57.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,634 +488,684 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1064102564102564</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
-        </is>
+          <t>isophonics_235</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_166</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2708333333333333</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj/F', 'F:maj']]</t>
+          <t>[['Bb', 'F', 'Bb']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(83.34, 87.64)]</t>
+          <t>[['G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(17.34, 24.4)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:26.041712', '0:00:37.106020')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:17.839297', '0:00:22.785147')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_19</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_81</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.225</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['Bb', 'C', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_181</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['E', 'F#', 'B']]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(15.172562, 18.678775)]</t>
+          <t>[['G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(26.48873, 32.328548)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:01:06.060000', '0:01:08.180000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:01:04.280000', '0:01:11')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_53</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.07690302398331594</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_78</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1833333333333333</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj', 'D#:maj']]</t>
+          <t>[['A:7', 'D:min/A', 'A:maj'], ['D:maj', 'G:maj', 'D:maj/F#'], ['D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(41.7, 45.42)]</t>
+          <t>[['C:7', 'F:min', 'C:maj'], ['F:maj', 'A#:maj', 'F:maj'], ['F:min', 'C:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(65.78, 74.48)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:28.520000', '0:00:31.040000'), ('0:01:00.760000', '0:01:04.360000'), ('0:00:07.400000', '0:00:12.020000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:13.460000', '0:00:18.400000'), ('0:01:58.440000', '0:02:01.680000'), ('0:00:00.240000', '0:00:05.080000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1493055555555556</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'D']]</t>
-        </is>
+          <t>isophonics_199</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_79</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.06266149870801033</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G/3', 'C', 'G']]</t>
+          <t>[['A', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(1.15, 5.734)]</t>
+          <t>[['B', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(13.079206, 17.500916)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
-        </is>
-      </c>
+          <t>[('0:00:03.028463', '0:00:06.708825')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:05.682280', '0:00:17.106498')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1821946169772257</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'F:maj']]</t>
-        </is>
+          <t>isophonics_0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_133</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.15625</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'D:7', 'G:maj', 'G:maj/B']]</t>
+          <t>[['Ab', 'Db', 'Bb:min'], ['Ab', 'Db', 'Db']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(68.04, 79.0)]</t>
+          <t>[['A', 'D', 'B:min'], ['A', 'D', 'D/2']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(18.8, 22.56)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:35.765102', '0:00:41.755850'), ('0:00:04.691165', '0:00:10.733990')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:25.887570', '0:00:31.612706'), ('0:00:52.196388', '0:00:57.251357')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.141749723145072</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['Db', 'Ab', 'Ab', 'Db'], ['Ab', 'Db', 'Db:min', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_28</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2687747035573123</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G/3', 'G:maj', 'C:maj'], ['D/7', 'G/3', 'G:min/b3', 'D:maj']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(119.66, 123.07), (121.6, 124.49)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(40.171, 44.656), (62.778, 67.223)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+          <t>[('0:00:05.700000', '0:00:12.080000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:19.360000', '0:00:22.380000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.08307692307692308</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A:min7/C', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>isophonics_220</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>jaah_1</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3657142857142857</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['Bb:min7', 'Eb:7', 'Ab/3']]</t>
+          <t>[['D', 'D', 'D/7', 'D/6']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(68.8, 76.2)]</t>
+          <t>[['Eb', 'Eb', 'Eb', 'Eb']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(24.46, 30.01)]</t>
+          <t>[('0:00:00.325509', '0:00:03.756394')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:08.900000', '0:00:17.050000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1135714285714286</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['C', 'E', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5142857142857142</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G', 'B', 'E:min']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(22.778458, 28.978185)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(71.072653, 74.544036)]</t>
+          <t>[('0:01:03.600000', '0:01:06.040000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
-        </is>
-      </c>
+          <t>[('0:01:57.540000', '0:02:01.800000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_51</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_205</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.08488805970149253</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['Bb', 'F', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'E']]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(10.88492, 15.064512)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(10.689251, 16.993469)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:01:52.240000', '0:01:57.700000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:02:01.740000', '0:02:08.480000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_54</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0882943143812709</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Bb:7', 'Eb'], ['Eb', 'Eb', 'Bb:7']]</t>
-        </is>
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj'], ['F:maj', 'F:maj/A', 'C:7']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(36.82, 47.63), (22.37, 33.31)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(16.8, 19.04), (18.48, 20.7)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:16.840000', '0:00:21.540000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:21.280000', '0:00:41.800000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_77</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.09642857142857142</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(12.28, 17.3)]</t>
+          <t>[['G:maj/B', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(47.02, 51.38)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:01:03.100000', '0:01:06.700000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:20.600000', '0:00:24.180000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2708333333333333</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj'], ['E:min', 'B:maj', 'E:min']]</t>
-        </is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#'], ['D:min', 'A:maj', 'D:min']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(55.58, 62.32), (83.2, 91.14)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(60.76, 64.36), (7.4, 12.02)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+          <t>[('0:00:05', '0:01:54.060000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:05.440000', '0:01:53.760000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_274</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2392857142857143</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
+          <t>schubert-winterreise_154</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_28</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db', 'Ab']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(61.6, 63.84)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(3.129454, 5.172811)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:00:09.240000', '0:00:28.040000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:05.700000', '0:00:19.720000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_194</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_147</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1287758346581876</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G', 'D', 'A'], ['G', 'D', 'D'], ['D', 'G', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'B'], ['A', 'E', 'E'], ['E', 'A', 'E']]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(59.20524, 66.101566), (10.919344, 16.143834), (144.085784, 149.240614)]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(23.861, 34.866), (65.747, 81.235), (19.435, 32.669)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+          <t>[('0:00:01.360000', '0:00:24.160000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:00.300000', '0:00:20.700000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_225</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.09642857142857142</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:min', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_57</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min/b7']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(23.86, 29.36)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(40.049, 48.539)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:23.160000', '0:00:26.040000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:57.420000', '0:01:00.320000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_47</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(2.58, 7.08)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(8.2, 23.6)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
